--- a/output/frequencies/women/LAO_women_2006.xlsx
+++ b/output/frequencies/women/LAO_women_2006.xlsx
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>285.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="11">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.3</v>
+        <v>16.7</v>
       </c>
       <c r="C10" t="n">
-        <v>285.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="11">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.8</v>
+        <v>10.4</v>
       </c>
       <c r="C10" t="n">
-        <v>285.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>285.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="11">
